--- a/Business Plan Documents/YPS Startup Expenses.xlsx
+++ b/Business Plan Documents/YPS Startup Expenses.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trixia Urquiza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Z MINSYST - TENTREP\tentrep-yps\Business Plan Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Startup Expenses" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,6 @@
     <t>Advertising and Promotional Expenses</t>
   </si>
   <si>
-    <t>Owners' Investment (name &amp; % ownership)</t>
-  </si>
-  <si>
     <t>Buildings / Real Estate</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>Loan related fees</t>
+  </si>
+  <si>
+    <t>Owners' Investment (names)</t>
   </si>
 </sst>
 </file>
@@ -322,9 +322,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;Php&quot;* #,##0.00_);_(&quot;Php&quot;* \(#,##0.00\);_(&quot;Php&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;Php&quot;* #,##0.00_);_(&quot;Php&quot;* \(#,##0.00\);_(&quot;Php&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
@@ -446,7 +446,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -466,15 +466,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -783,7 +783,7 @@
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -803,9 +803,9 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
@@ -813,7 +813,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="24">
@@ -823,7 +823,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="24">
@@ -833,7 +833,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="24">
@@ -843,7 +843,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="24">
@@ -874,7 +874,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="22">
@@ -976,7 +976,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2"/>
     </row>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="23">
@@ -1038,7 +1038,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="22">
@@ -1047,7 +1047,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="22">
@@ -1056,7 +1056,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="22">
@@ -1065,7 +1065,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="22">
@@ -1074,7 +1074,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="23">
@@ -1121,7 +1121,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="22">
@@ -1130,7 +1130,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="22">
@@ -1195,7 +1195,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="22">
@@ -1288,7 +1288,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="22">
@@ -1315,7 +1315,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="22">
@@ -1324,7 +1324,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="22">
@@ -1353,7 +1353,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="22">
@@ -1425,7 +1425,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="22">
@@ -1475,7 +1475,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="22">
@@ -1505,7 +1505,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="22">
@@ -1524,7 +1524,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B99" s="7"/>
       <c r="C99" s="22">
@@ -1602,29 +1602,29 @@
     </row>
     <row r="109" spans="1:5" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C109" s="26">
         <v>1500000</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C110" s="26">
         <v>4000000</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C111" s="26">
         <v>0</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="112" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C112" s="26">
         <v>0</v>
@@ -1643,27 +1643,27 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -1674,19 +1674,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F122" s="15"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F123" s="16"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F124" s="15"/>
     </row>

--- a/Business Plan Documents/YPS Startup Expenses.xlsx
+++ b/Business Plan Documents/YPS Startup Expenses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="15360" windowHeight="7755"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Startup Expenses" sheetId="1" r:id="rId1"/>
@@ -287,9 +287,6 @@
     <t xml:space="preserve">Other </t>
   </si>
   <si>
-    <t>YPS</t>
-  </si>
-  <si>
     <t>Painting</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>Owners' Investment (names)</t>
+  </si>
+  <si>
+    <t>Bridge Mobile Phils, Inc.</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -477,6 +477,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,7 +761,7 @@
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -782,8 +783,8 @@
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>68</v>
+      <c r="A2" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -805,7 +806,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
@@ -874,7 +875,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="22">
@@ -1038,7 +1039,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="22">
@@ -1047,7 +1048,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="22">
@@ -1056,7 +1057,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="22">
@@ -1065,7 +1066,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="22">
@@ -1353,7 +1354,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="22">
@@ -1608,7 +1609,7 @@
         <v>1500000</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -1619,7 +1620,7 @@
         <v>4000000</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
